--- a/biology/Botanique/Sylviculteur/Sylviculteur.xlsx
+++ b/biology/Botanique/Sylviculteur/Sylviculteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sylviculteur est un professionnel de la sylviculture. Le terme n'est pas toujours utilisé de manière très précise ; ainsi, il désigne plus facilement un propriétaire-exploitant de forêt plutôt qu'un opérateur (comme un bucheron). Ce professionnel contribue à entretenir ou cultiver la forêt.
 On emploie parfois le terme synonyme d'arboriculteur.
@@ -512,9 +524,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le sylviculteur (du latin sylva "forêt"[1] et "cultura "cultiver"[2]) a pour but de produire et récolter du bois[3]. Il effectue différentes types d'actions afin d'entretenir des plantations, de produire et d'aménager une forêt. Parmi ces missions, on peut en citer quelques-unes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le sylviculteur (du latin sylva "forêt" et "cultura "cultiver") a pour but de produire et récolter du bois. Il effectue différentes types d'actions afin d'entretenir des plantations, de produire et d'aménager une forêt. Parmi ces missions, on peut en citer quelques-unes :
 La préparation des sols
 Le plantage des arbres
 L'entretien des plantations
